--- a/projects/CGE_Generator/data/A_ProductionNests.xlsx
+++ b/projects/CGE_Generator/data/A_ProductionNests.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
